--- a/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_lexical_diversity.xlsx
+++ b/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_lexical_diversity.xlsx
@@ -7,25 +7,24 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2007" sheetId="1" r:id="rId1"/>
-    <sheet name="2008" sheetId="2" r:id="rId2"/>
-    <sheet name="2009" sheetId="3" r:id="rId3"/>
-    <sheet name="2010" sheetId="4" r:id="rId4"/>
-    <sheet name="2011" sheetId="5" r:id="rId5"/>
-    <sheet name="2012" sheetId="6" r:id="rId6"/>
-    <sheet name="2013" sheetId="7" r:id="rId7"/>
-    <sheet name="2014" sheetId="8" r:id="rId8"/>
-    <sheet name="2016" sheetId="9" r:id="rId9"/>
-    <sheet name="2017" sheetId="10" r:id="rId10"/>
-    <sheet name="2018" sheetId="11" r:id="rId11"/>
-    <sheet name="Summary" sheetId="12" r:id="rId12"/>
+    <sheet name="2009" sheetId="1" r:id="rId1"/>
+    <sheet name="2010" sheetId="2" r:id="rId2"/>
+    <sheet name="2011" sheetId="3" r:id="rId3"/>
+    <sheet name="2012" sheetId="4" r:id="rId4"/>
+    <sheet name="2013" sheetId="5" r:id="rId5"/>
+    <sheet name="2014" sheetId="6" r:id="rId6"/>
+    <sheet name="2015" sheetId="7" r:id="rId7"/>
+    <sheet name="2016" sheetId="8" r:id="rId8"/>
+    <sheet name="2017" sheetId="9" r:id="rId9"/>
+    <sheet name="2018" sheetId="10" r:id="rId10"/>
+    <sheet name="Summary" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
   <si>
     <t>factcheckURL</t>
   </si>
@@ -33,15 +32,6 @@
     <t>lexical_diversity</t>
   </si>
   <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2007/aug/30/john-mccain/mccain-picks-and-chooses-in-attack-on-clinton/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2008/jun/17/republican-national-committee-republican/no-proof-rezko-saved-obama-money-on-home/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2009/jan/13/people-american-way/seeing-red-over-warren/</t>
-  </si>
-  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2009/apr/01/michele-bachmann/defending-dollar-bachmann-distorts-geithners-comme/</t>
   </si>
   <si>
@@ -250,6 +240,27 @@
   </si>
   <si>
     <t>http://www.politifact.com/wisconsin/statements/2014/jun/16/democratic-congressional-campaign-committee/democratic-group-says-rep-sean-duffy-voted-against/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/28/constitutional-rights-pac/paul-ryan-one-few-gop-vote-force-christian-employe/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/13/lynn-westmoreland/Westmoreland-ran-doesnt-have-to-prove-nuclear-plan/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/may/03/robert-hurt/hurt-amiss-linking-estate-tax-small-farm-businesse/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/apr/13/dave-brat/brat-says-obamacare-repeal-would-save-nation-2-tri/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/mar/10/state-democratic-party-wisconsin/democratic-party-says-scott-walker-proposed-sellin/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jan/23/john-cornyn/cornyn-says-keystone-pipeline-through-texas-create/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jan/18/bobby-scott/bobby-scott-low-gas-prices-are-result-obama-polici/</t>
   </si>
   <si>
     <t>http://www.politifact.com/california/statements/2016/aug/05/dianne-feinstein/feinsteins-claim-about-prime-time-marijuana-tv-ads/</t>
@@ -764,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,12 +794,48 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.6349206349206349</v>
+        <v>0.5803921568627451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.4734177215189874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.3242290748898679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.6580310880829016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.4361702127659575</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -796,7 +843,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,146 +859,651 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B2">
-        <v>0.4614264919941776</v>
+        <v>0.5852090032154341</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B3">
-        <v>0.6666666666666666</v>
+        <v>0.5029585798816568</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B4">
-        <v>0.4874623871614844</v>
+        <v>0.3935185185185185</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B5">
-        <v>0.6830985915492958</v>
+        <v>0.5905044510385756</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B6">
-        <v>0.5396341463414634</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B7">
-        <v>0.4779411764705883</v>
+        <v>0.5610687022900763</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B8">
-        <v>0.5521235521235521</v>
+        <v>0.5529411764705883</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.4944480508240919</v>
+      </c>
+      <c r="D2">
+        <v>0.129382070211745</v>
+      </c>
+      <c r="E2">
+        <v>0.3242290748898679</v>
+      </c>
+      <c r="F2">
+        <v>0.4361702127659575</v>
+      </c>
+      <c r="G2">
+        <v>0.4734177215189874</v>
+      </c>
+      <c r="H2">
+        <v>0.5803921568627451</v>
+      </c>
+      <c r="I2">
+        <v>0.6580310880829016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.6121811916444477</v>
+      </c>
+      <c r="D3">
+        <v>0.07429594795466714</v>
+      </c>
+      <c r="E3">
+        <v>0.5247252747252747</v>
+      </c>
+      <c r="F3">
+        <v>0.5628985969387755</v>
+      </c>
+      <c r="G3">
+        <v>0.6006422263848006</v>
+      </c>
+      <c r="H3">
+        <v>0.6455156500802568</v>
+      </c>
+      <c r="I3">
+        <v>0.7540983606557377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.5360530277246287</v>
+      </c>
+      <c r="D4">
+        <v>0.08694796443643375</v>
+      </c>
+      <c r="E4">
+        <v>0.4034536891679749</v>
+      </c>
+      <c r="F4">
+        <v>0.5009633911368016</v>
+      </c>
+      <c r="G4">
+        <v>0.5470588235294118</v>
+      </c>
+      <c r="H4">
+        <v>0.5661016949152542</v>
+      </c>
+      <c r="I4">
+        <v>0.6729559748427673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.5216503704303482</v>
+      </c>
+      <c r="D5">
+        <v>0.08537132294332625</v>
+      </c>
+      <c r="E5">
+        <v>0.3813314037626628</v>
+      </c>
+      <c r="F5">
+        <v>0.4651166829731435</v>
+      </c>
+      <c r="G5">
+        <v>0.5168241836978402</v>
+      </c>
+      <c r="H5">
+        <v>0.557824072957128</v>
+      </c>
+      <c r="I5">
+        <v>0.6888888888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.5499113077663913</v>
+      </c>
+      <c r="D6">
+        <v>0.09513402716098429</v>
+      </c>
+      <c r="E6">
+        <v>0.3916083916083916</v>
+      </c>
+      <c r="F6">
+        <v>0.4892703862660944</v>
+      </c>
+      <c r="G6">
+        <v>0.543010752688172</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <v>0.7651515151515151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.5377600347585297</v>
+      </c>
+      <c r="D7">
+        <v>0.1149672927137002</v>
+      </c>
+      <c r="E7">
+        <v>0.3594202898550725</v>
+      </c>
+      <c r="F7">
+        <v>0.4437229437229437</v>
+      </c>
+      <c r="G7">
+        <v>0.5608856088560885</v>
+      </c>
+      <c r="H7">
+        <v>0.6238579428234601</v>
+      </c>
+      <c r="I7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.5316102947335629</v>
+      </c>
+      <c r="D8">
+        <v>0.06760085548234981</v>
+      </c>
+      <c r="E8">
+        <v>0.4555808656036446</v>
+      </c>
+      <c r="F8">
+        <v>0.4656972962452688</v>
+      </c>
+      <c r="G8">
+        <v>0.5481283422459893</v>
+      </c>
+      <c r="H8">
+        <v>0.587863247863248</v>
+      </c>
+      <c r="I8">
+        <v>0.6104417670682731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.5714510492352248</v>
+      </c>
+      <c r="D9">
+        <v>0.08356291780587875</v>
+      </c>
+      <c r="E9">
+        <v>0.4425287356321839</v>
+      </c>
+      <c r="F9">
+        <v>0.5212302227962544</v>
+      </c>
+      <c r="G9">
+        <v>0.5766247178058503</v>
+      </c>
+      <c r="H9">
+        <v>0.6167582417582418</v>
+      </c>
+      <c r="I9">
+        <v>0.7075471698113207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0.5070435150948912</v>
+      </c>
+      <c r="D10">
+        <v>0.1160422438839158</v>
+      </c>
+      <c r="E10">
+        <v>0.2471145309263096</v>
+      </c>
+      <c r="F10">
+        <v>0.4405314481733695</v>
+      </c>
+      <c r="G10">
+        <v>0.5160608127366749</v>
+      </c>
+      <c r="H10">
+        <v>0.5755302814126344</v>
+      </c>
+      <c r="I10">
+        <v>0.6830985915492958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0.5757072044878357</v>
+      </c>
+      <c r="D11">
+        <v>0.1362435566464901</v>
+      </c>
+      <c r="E11">
+        <v>0.3935185185185185</v>
+      </c>
+      <c r="F11">
+        <v>0.5279498781761225</v>
+      </c>
+      <c r="G11">
+        <v>0.5610687022900763</v>
+      </c>
+      <c r="H11">
+        <v>0.5878567271270049</v>
+      </c>
+      <c r="I11">
+        <v>0.84375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.6270270270270271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.6404494382022472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.548469387755102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.5247252747252747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.5742574257425742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.7540983606557377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.5677083333333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4096045197740113</v>
+        <v>0.6607142857142857</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0.5609756097560976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.515748031496063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0.5661016949152542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>0.615916955017301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0.4034536891679749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.4046563192904656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>0.5552825552825553</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>0.3922789539227896</v>
+        <v>0.4097633136094674</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>0.2471145309263096</v>
+        <v>0.5470588235294118</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>0.579185520361991</v>
+        <v>0.5009633911368016</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0.541958041958042</v>
+        <v>0.5136116152450091</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>0.4335664335664335</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>0.631336405529954</v>
+        <v>0.4344569288389513</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>0.4924874791318865</v>
+        <v>0.6511627906976745</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>0.3345342254246012</v>
+        <v>0.5486725663716814</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>0.6312849162011173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19">
-        <v>0.5645645645645646</v>
+        <v>0.6729559748427673</v>
       </c>
     </row>
   </sheetData>
@@ -973,15 +1525,14 @@
     <hyperlink ref="A16" r:id="rId15"/>
     <hyperlink ref="A17" r:id="rId16"/>
     <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -997,619 +1548,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>0.5852090032154341</v>
+        <v>0.62109375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>0.5029585798816568</v>
+        <v>0.4569190600522193</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>0.3935185185185185</v>
+        <v>0.4924406047516199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>0.5905044510385756</v>
+        <v>0.3813314037626628</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>0.84375</v>
+        <v>0.5303030303030303</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>0.5610687022900763</v>
+        <v>0.6069868995633187</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>0.5529411764705883</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.6349206349206349</v>
-      </c>
-      <c r="E2">
-        <v>0.6349206349206349</v>
-      </c>
-      <c r="F2">
-        <v>0.6349206349206349</v>
-      </c>
-      <c r="G2">
-        <v>0.6349206349206349</v>
-      </c>
-      <c r="H2">
-        <v>0.6349206349206349</v>
-      </c>
-      <c r="I2">
-        <v>0.6349206349206349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.4863567073170731</v>
-      </c>
-      <c r="D3">
-        <v>0.1607158857849302</v>
-      </c>
-      <c r="E3">
-        <v>0.3727134146341464</v>
-      </c>
-      <c r="F3">
-        <v>0.4295350609756098</v>
-      </c>
-      <c r="G3">
-        <v>0.4863567073170731</v>
-      </c>
-      <c r="H3">
-        <v>0.5431783536585366</v>
-      </c>
-      <c r="I3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0.4942718393703474</v>
-      </c>
-      <c r="D4">
-        <v>0.129672131461119</v>
-      </c>
-      <c r="E4">
-        <v>0.3233480176211454</v>
-      </c>
-      <c r="F4">
-        <v>0.4361702127659575</v>
-      </c>
-      <c r="G4">
-        <v>0.4734177215189874</v>
-      </c>
-      <c r="H4">
-        <v>0.5803921568627451</v>
-      </c>
-      <c r="I4">
-        <v>0.6580310880829016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>0.6121811916444477</v>
-      </c>
-      <c r="D5">
-        <v>0.07429594795466714</v>
-      </c>
-      <c r="E5">
-        <v>0.5247252747252747</v>
-      </c>
-      <c r="F5">
-        <v>0.5628985969387755</v>
-      </c>
-      <c r="G5">
-        <v>0.6006422263848006</v>
-      </c>
-      <c r="H5">
-        <v>0.6455156500802568</v>
-      </c>
-      <c r="I5">
-        <v>0.7540983606557377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0.5360530277246287</v>
-      </c>
-      <c r="D6">
-        <v>0.08694796443643375</v>
-      </c>
-      <c r="E6">
-        <v>0.4034536891679749</v>
-      </c>
-      <c r="F6">
-        <v>0.5009633911368016</v>
-      </c>
-      <c r="G6">
-        <v>0.5470588235294118</v>
-      </c>
-      <c r="H6">
-        <v>0.5661016949152542</v>
-      </c>
-      <c r="I6">
-        <v>0.6729559748427673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>0.5216503704303482</v>
-      </c>
-      <c r="D7">
-        <v>0.08537132294332625</v>
-      </c>
-      <c r="E7">
-        <v>0.3813314037626628</v>
-      </c>
-      <c r="F7">
-        <v>0.4651166829731435</v>
-      </c>
-      <c r="G7">
-        <v>0.5168241836978402</v>
-      </c>
-      <c r="H7">
-        <v>0.557824072957128</v>
-      </c>
-      <c r="I7">
-        <v>0.6888888888888889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>0.5499113077663913</v>
-      </c>
-      <c r="D8">
-        <v>0.09513402716098429</v>
-      </c>
-      <c r="E8">
-        <v>0.3916083916083916</v>
-      </c>
-      <c r="F8">
-        <v>0.4892703862660944</v>
-      </c>
-      <c r="G8">
-        <v>0.543010752688172</v>
-      </c>
-      <c r="H8">
-        <v>0.6</v>
-      </c>
-      <c r="I8">
-        <v>0.7651515151515151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.5377600347585297</v>
-      </c>
-      <c r="D9">
-        <v>0.1149672927137002</v>
-      </c>
-      <c r="E9">
-        <v>0.3594202898550725</v>
-      </c>
-      <c r="F9">
-        <v>0.4437229437229437</v>
-      </c>
-      <c r="G9">
-        <v>0.5608856088560885</v>
-      </c>
-      <c r="H9">
-        <v>0.6238579428234601</v>
-      </c>
-      <c r="I9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0.5714510492352248</v>
-      </c>
-      <c r="D10">
-        <v>0.08356291780587875</v>
-      </c>
-      <c r="E10">
-        <v>0.4425287356321839</v>
-      </c>
-      <c r="F10">
-        <v>0.5212302227962544</v>
-      </c>
-      <c r="G10">
-        <v>0.5766247178058503</v>
-      </c>
-      <c r="H10">
-        <v>0.6167582417582418</v>
-      </c>
-      <c r="I10">
-        <v>0.7075471698113207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>0.5070149224260515</v>
-      </c>
-      <c r="D11">
-        <v>0.1160871707590275</v>
-      </c>
-      <c r="E11">
-        <v>0.2471145309263096</v>
-      </c>
-      <c r="F11">
-        <v>0.4405314481733695</v>
-      </c>
-      <c r="G11">
-        <v>0.5160608127366749</v>
-      </c>
-      <c r="H11">
-        <v>0.5755302814126344</v>
-      </c>
-      <c r="I11">
-        <v>0.6830985915492958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>0.5757072044878357</v>
-      </c>
-      <c r="D12">
-        <v>0.1362435566464901</v>
-      </c>
-      <c r="E12">
-        <v>0.3935185185185185</v>
-      </c>
-      <c r="F12">
-        <v>0.5279498781761225</v>
-      </c>
-      <c r="G12">
-        <v>0.5610687022900763</v>
-      </c>
-      <c r="H12">
-        <v>0.5878567271270049</v>
-      </c>
-      <c r="I12">
-        <v>0.84375</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.3727134146341464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0.5803921568627451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.4734177215189874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.3233480176211454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.6580310880829016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.4361702127659575</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.6270270270270271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.6404494382022472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0.548469387755102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0.5247252747252747</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0.5742574257425742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0.7540983606557377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.5677083333333334</v>
+        <v>0.5121293800539084</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>0.6607142857142857</v>
+        <v>0.5215189873417722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.4389067524115756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>0.6888888888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>0.4678492239467849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>0.5414364640883977</v>
       </c>
     </row>
   </sheetData>
@@ -1622,6 +1652,10 @@
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
     <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1645,138 +1679,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B2">
-        <v>0.5609756097560976</v>
+        <v>0.5849056603773585</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>0.515748031496063</v>
+        <v>0.429718875502008</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>0.5454545454545454</v>
+        <v>0.3916083916083916</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>0.5661016949152542</v>
+        <v>0.6896551724137931</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>0.615916955017301</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>0.4034536891679749</v>
+        <v>0.6291390728476821</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>0.4046563192904656</v>
+        <v>0.4892703862660944</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>0.5552825552825553</v>
+        <v>0.7651515151515151</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>0.4097633136094674</v>
+        <v>0.5085910652920962</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>0.5470588235294118</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>0.5009633911368016</v>
+        <v>0.4929078014184397</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>0.5136116152450091</v>
+        <v>0.543010752688172</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.6180257510729614</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>0.4344569288389513</v>
+        <v>0.538961038961039</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>0.6511627906976745</v>
+        <v>0.5465686274509803</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>0.5486725663716814</v>
+        <v>0.4662162162162162</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>0.6729559748427673</v>
+        <v>0.5904761904761905</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1821,98 +1855,322 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>0.62109375</v>
+        <v>0.5608856088560885</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>0.4569190600522193</v>
+        <v>0.4437229437229437</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B4">
-        <v>0.4924406047516199</v>
+        <v>0.5938697318007663</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>0.3813314037626628</v>
+        <v>0.5916666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B6">
-        <v>0.5303030303030303</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B7">
-        <v>0.6069868995633187</v>
+        <v>0.6538461538461539</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B8">
-        <v>0.5121293800539084</v>
+        <v>0.6763005780346821</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B9">
-        <v>0.5215189873417722</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B10">
-        <v>0.4389067524115756</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>0.6888888888888889</v>
+        <v>0.3594202898550725</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B12">
-        <v>0.4678492239467849</v>
+        <v>0.4437229437229437</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>0.4581939799331103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>0.5846153846153846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>0.5911111111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>0.4555808656036446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>0.4732006125574272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>0.6104417670682731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>0.5481283422459893</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>0.6861702127659575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>0.6098901098901099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>0.6022727272727273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>0.52046783625731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>0.5546875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>0.5825688073394495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9">
+        <v>0.4425287356321839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10">
+        <v>0.523517382413088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11">
+        <v>0.4614121510673235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12">
+        <v>0.5706806282722513</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B13">
-        <v>0.5414364640883977</v>
+        <v>0.7075471698113207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <v>0.6190476190476191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>0.4595238095238095</v>
       </c>
     </row>
   </sheetData>
@@ -1929,14 +2187,16 @@
     <hyperlink ref="A11" r:id="rId10"/>
     <hyperlink ref="A12" r:id="rId11"/>
     <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1952,138 +2212,146 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B2">
-        <v>0.5849056603773585</v>
+        <v>0.4614264919941776</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B3">
-        <v>0.429718875502008</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B4">
-        <v>0.3916083916083916</v>
+        <v>0.4874623871614844</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B5">
-        <v>0.6896551724137931</v>
+        <v>0.6830985915492958</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.5396341463414634</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B7">
-        <v>0.6291390728476821</v>
+        <v>0.4779411764705883</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B8">
-        <v>0.4892703862660944</v>
+        <v>0.5521235521235521</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B9">
-        <v>0.7651515151515151</v>
+        <v>0.4096045197740113</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B10">
-        <v>0.5085910652920962</v>
+        <v>0.3922789539227896</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B11">
-        <v>0.4642857142857143</v>
+        <v>0.2471145309263096</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>0.4929078014184397</v>
+        <v>0.579185520361991</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B13">
-        <v>0.543010752688172</v>
+        <v>0.541958041958042</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B14">
-        <v>0.6180257510729614</v>
+        <v>0.4335664335664335</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B15">
-        <v>0.538961038961039</v>
+        <v>0.631336405529954</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B16">
-        <v>0.5465686274509803</v>
+        <v>0.4924874791318865</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B17">
-        <v>0.4662162162162162</v>
+        <v>0.3350488934637159</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B18">
-        <v>0.5904761904761905</v>
+        <v>0.6312849162011173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <v>0.5645645645645646</v>
       </c>
     </row>
   </sheetData>
@@ -2105,277 +2373,7 @@
     <hyperlink ref="A16" r:id="rId15"/>
     <hyperlink ref="A17" r:id="rId16"/>
     <hyperlink ref="A18" r:id="rId17"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>0.5608856088560885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
-        <v>0.4437229437229437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <v>0.5938697318007663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>0.5916666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>0.4571428571428571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>0.6538461538461539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>0.6763005780346821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10">
-        <v>0.4347826086956522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11">
-        <v>0.3594202898550725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12">
-        <v>0.4437229437229437</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2">
-        <v>0.6861702127659575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <v>0.6098901098901099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4">
-        <v>0.6022727272727273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6">
-        <v>0.52046783625731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7">
-        <v>0.5546875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8">
-        <v>0.5825688073394495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9">
-        <v>0.4425287356321839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10">
-        <v>0.523517382413088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>0.4614121510673235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12">
-        <v>0.5706806282722513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13">
-        <v>0.7075471698113207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14">
-        <v>0.6190476190476191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15">
-        <v>0.4595238095238095</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_lexical_diversity.xlsx
+++ b/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_lexical_diversity.xlsx
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5803921568627451</v>
+        <v>0.5304054054054054</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -802,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.4734177215189874</v>
+        <v>0.4182590233545648</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.3242290748898679</v>
+        <v>0.2996870109546166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.6580310880829016</v>
+        <v>0.5895196506550219</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -826,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.4361702127659575</v>
+        <v>0.397025171624714</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +862,7 @@
         <v>111</v>
       </c>
       <c r="B2">
-        <v>0.5852090032154341</v>
+        <v>0.5470588235294118</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -870,7 +870,7 @@
         <v>112</v>
       </c>
       <c r="B3">
-        <v>0.5029585798816568</v>
+        <v>0.4522184300341297</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -878,7 +878,7 @@
         <v>113</v>
       </c>
       <c r="B4">
-        <v>0.3935185185185185</v>
+        <v>0.3742071881606766</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -886,7 +886,7 @@
         <v>114</v>
       </c>
       <c r="B5">
-        <v>0.5905044510385756</v>
+        <v>0.5300261096605744</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -894,7 +894,7 @@
         <v>115</v>
       </c>
       <c r="B6">
-        <v>0.84375</v>
+        <v>0.8142857142857143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -902,7 +902,7 @@
         <v>116</v>
       </c>
       <c r="B7">
-        <v>0.5610687022900763</v>
+        <v>0.5298245614035088</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -910,7 +910,7 @@
         <v>117</v>
       </c>
       <c r="B8">
-        <v>0.5529411764705883</v>
+        <v>0.5176151761517616</v>
       </c>
     </row>
   </sheetData>
@@ -972,25 +972,25 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.4944480508240919</v>
+        <v>0.4469792523988644</v>
       </c>
       <c r="D2">
-        <v>0.129382070211745</v>
+        <v>0.1143382637970692</v>
       </c>
       <c r="E2">
-        <v>0.3242290748898679</v>
+        <v>0.2996870109546166</v>
       </c>
       <c r="F2">
-        <v>0.4361702127659575</v>
+        <v>0.397025171624714</v>
       </c>
       <c r="G2">
-        <v>0.4734177215189874</v>
+        <v>0.4182590233545648</v>
       </c>
       <c r="H2">
-        <v>0.5803921568627451</v>
+        <v>0.5304054054054054</v>
       </c>
       <c r="I2">
-        <v>0.6580310880829016</v>
+        <v>0.5895196506550219</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1001,25 +1001,25 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.6121811916444477</v>
+        <v>0.566727398310069</v>
       </c>
       <c r="D3">
-        <v>0.07429594795466714</v>
+        <v>0.07901800925838894</v>
       </c>
       <c r="E3">
-        <v>0.5247252747252747</v>
+        <v>0.4843373493975904</v>
       </c>
       <c r="F3">
-        <v>0.5628985969387755</v>
+        <v>0.5014942663006445</v>
       </c>
       <c r="G3">
-        <v>0.6006422263848006</v>
+        <v>0.5532683279162152</v>
       </c>
       <c r="H3">
-        <v>0.6455156500802568</v>
+        <v>0.6047430830039525</v>
       </c>
       <c r="I3">
-        <v>0.7540983606557377</v>
+        <v>0.7132352941176471</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1030,25 +1030,25 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.5360530277246287</v>
+        <v>0.4919070526162364</v>
       </c>
       <c r="D4">
-        <v>0.08694796443643375</v>
+        <v>0.08588513811802025</v>
       </c>
       <c r="E4">
-        <v>0.4034536891679749</v>
+        <v>0.353874883286648</v>
       </c>
       <c r="F4">
-        <v>0.5009633911368016</v>
+        <v>0.4433497536945813</v>
       </c>
       <c r="G4">
-        <v>0.5470588235294118</v>
+        <v>0.5014245014245015</v>
       </c>
       <c r="H4">
-        <v>0.5661016949152542</v>
+        <v>0.5204819277108433</v>
       </c>
       <c r="I4">
-        <v>0.6729559748427673</v>
+        <v>0.6305732484076433</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1059,25 +1059,25 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0.5216503704303482</v>
+        <v>0.4716381970218835</v>
       </c>
       <c r="D5">
-        <v>0.08537132294332625</v>
+        <v>0.08730082396682598</v>
       </c>
       <c r="E5">
-        <v>0.3813314037626628</v>
+        <v>0.3126069594980034</v>
       </c>
       <c r="F5">
-        <v>0.4651166829731435</v>
+        <v>0.4186915887850468</v>
       </c>
       <c r="G5">
-        <v>0.5168241836978402</v>
+        <v>0.4684642686867617</v>
       </c>
       <c r="H5">
-        <v>0.557824072957128</v>
+        <v>0.5185674009784682</v>
       </c>
       <c r="I5">
-        <v>0.6888888888888889</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1088,25 +1088,25 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>0.5499113077663913</v>
+        <v>0.5090185306926361</v>
       </c>
       <c r="D6">
-        <v>0.09513402716098429</v>
+        <v>0.09024197937760119</v>
       </c>
       <c r="E6">
-        <v>0.3916083916083916</v>
+        <v>0.3520286396181384</v>
       </c>
       <c r="F6">
-        <v>0.4892703862660944</v>
+        <v>0.4417177914110429</v>
       </c>
       <c r="G6">
-        <v>0.543010752688172</v>
+        <v>0.5072886297376094</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="I6">
-        <v>0.7651515151515151</v>
+        <v>0.7074829931972789</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1117,25 +1117,25 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.5377600347585297</v>
+        <v>0.4877116648806603</v>
       </c>
       <c r="D7">
-        <v>0.1149672927137002</v>
+        <v>0.1228332128482508</v>
       </c>
       <c r="E7">
-        <v>0.3594202898550725</v>
+        <v>0.3367088607594937</v>
       </c>
       <c r="F7">
-        <v>0.4437229437229437</v>
+        <v>0.372302312407402</v>
       </c>
       <c r="G7">
-        <v>0.5608856088560885</v>
+        <v>0.5064102564102564</v>
       </c>
       <c r="H7">
-        <v>0.6238579428234601</v>
+        <v>0.5842172934747669</v>
       </c>
       <c r="I7">
-        <v>0.7</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1146,25 +1146,25 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.5316102947335629</v>
+        <v>0.4850568301597232</v>
       </c>
       <c r="D8">
-        <v>0.06760085548234981</v>
+        <v>0.07179638267937676</v>
       </c>
       <c r="E8">
-        <v>0.4555808656036446</v>
+        <v>0.3932432432432432</v>
       </c>
       <c r="F8">
-        <v>0.4656972962452688</v>
+        <v>0.4240440248836299</v>
       </c>
       <c r="G8">
-        <v>0.5481283422459893</v>
+        <v>0.4976851851851852</v>
       </c>
       <c r="H8">
-        <v>0.587863247863248</v>
+        <v>0.5419003438805419</v>
       </c>
       <c r="I8">
-        <v>0.6104417670682731</v>
+        <v>0.5725806451612904</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1175,25 +1175,25 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.5714510492352248</v>
+        <v>0.5255727463292839</v>
       </c>
       <c r="D9">
-        <v>0.08356291780587875</v>
+        <v>0.08588126891981591</v>
       </c>
       <c r="E9">
-        <v>0.4425287356321839</v>
+        <v>0.3980099502487562</v>
       </c>
       <c r="F9">
-        <v>0.5212302227962544</v>
+        <v>0.4463362068965517</v>
       </c>
       <c r="G9">
-        <v>0.5766247178058503</v>
+        <v>0.5354654441594353</v>
       </c>
       <c r="H9">
-        <v>0.6167582417582418</v>
+        <v>0.5800148783476282</v>
       </c>
       <c r="I9">
-        <v>0.7075471698113207</v>
+        <v>0.6692913385826772</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1204,25 +1204,25 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0.5070435150948912</v>
+        <v>0.46997086920851</v>
       </c>
       <c r="D10">
-        <v>0.1160422438839158</v>
+        <v>0.1140574647312718</v>
       </c>
       <c r="E10">
-        <v>0.2471145309263096</v>
+        <v>0.2226613965744401</v>
       </c>
       <c r="F10">
-        <v>0.4405314481733695</v>
+        <v>0.4006610576923077</v>
       </c>
       <c r="G10">
-        <v>0.5160608127366749</v>
+        <v>0.4705067897752104</v>
       </c>
       <c r="H10">
-        <v>0.5755302814126344</v>
+        <v>0.5469582629993712</v>
       </c>
       <c r="I10">
-        <v>0.6830985915492958</v>
+        <v>0.6687898089171974</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1233,25 +1233,25 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.5757072044878357</v>
+        <v>0.5378908576036824</v>
       </c>
       <c r="D11">
-        <v>0.1362435566464901</v>
+        <v>0.136105534751788</v>
       </c>
       <c r="E11">
-        <v>0.3935185185185185</v>
+        <v>0.3742071881606766</v>
       </c>
       <c r="F11">
-        <v>0.5279498781761225</v>
+        <v>0.4849168030929456</v>
       </c>
       <c r="G11">
-        <v>0.5610687022900763</v>
+        <v>0.5298245614035088</v>
       </c>
       <c r="H11">
-        <v>0.5878567271270049</v>
+        <v>0.5385424665949932</v>
       </c>
       <c r="I11">
-        <v>0.84375</v>
+        <v>0.8142857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1280,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.6270270270270271</v>
+        <v>0.5942028985507246</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6404494382022472</v>
+        <v>0.568075117370892</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.548469387755102</v>
+        <v>0.5034168564920274</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5247252747252747</v>
+        <v>0.4843373493975904</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5742574257425742</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7540983606557377</v>
+        <v>0.7132352941176471</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5677083333333334</v>
+        <v>0.4957264957264957</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6607142857142857</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.5609756097560976</v>
+        <v>0.5136612021857924</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.515748031496063</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.5454545454545454</v>
+        <v>0.5204819277108433</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.5661016949152542</v>
+        <v>0.5014245014245015</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.615916955017301</v>
+        <v>0.5859872611464968</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.4034536891679749</v>
+        <v>0.356475300400534</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0.4046563192904656</v>
+        <v>0.353874883286648</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0.5552825552825553</v>
+        <v>0.4989517819706499</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>0.4097633136094674</v>
+        <v>0.3695090439276486</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>0.5470588235294118</v>
+        <v>0.5157894736842106</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>0.5009633911368016</v>
+        <v>0.4433497536945813</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>0.5136116152450091</v>
+        <v>0.4668769716088328</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.6305732484076433</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>0.4344569288389513</v>
+        <v>0.4040747028862479</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>0.6511627906976745</v>
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.5486725663716814</v>
+        <v>0.5134408602150538</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.6729559748427673</v>
+        <v>0.5957446808510638</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1551,7 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>0.62109375</v>
+        <v>0.5618729096989966</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>0.4569190600522193</v>
+        <v>0.4205607476635514</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>0.4924406047516199</v>
+        <v>0.4510556621880998</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>0.3813314037626628</v>
+        <v>0.3126069594980034</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>0.5303030303030303</v>
+        <v>0.5041322314049587</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>37</v>
       </c>
       <c r="B7">
-        <v>0.6069868995633187</v>
+        <v>0.5632183908045977</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>0.5121293800539084</v>
+        <v>0.4578587699316629</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="B9">
-        <v>0.5215189873417722</v>
+        <v>0.4851258581235698</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>0.4389067524115756</v>
+        <v>0.3794940079893475</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>41</v>
       </c>
       <c r="B11">
-        <v>0.6888888888888889</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>42</v>
       </c>
       <c r="B12">
-        <v>0.4678492239467849</v>
+        <v>0.4130841121495327</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>43</v>
       </c>
       <c r="B13">
-        <v>0.5414364640883977</v>
+        <v>0.4790697674418605</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1682,7 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0.5849056603773585</v>
+        <v>0.5171102661596958</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>0.429718875502008</v>
+        <v>0.4111111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>0.3916083916083916</v>
+        <v>0.3520286396181384</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>0.6896551724137931</v>
+        <v>0.6641221374045801</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.5533596837944664</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>0.6291390728476821</v>
+        <v>0.5718390804597702</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>50</v>
       </c>
       <c r="B8">
-        <v>0.4892703862660944</v>
+        <v>0.4651162790697674</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0.7651515151515151</v>
+        <v>0.7074829931972789</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>0.5085910652920962</v>
+        <v>0.4680851063829787</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>53</v>
       </c>
       <c r="B11">
-        <v>0.4642857142857143</v>
+        <v>0.4376321353065539</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>54</v>
       </c>
       <c r="B12">
-        <v>0.4929078014184397</v>
+        <v>0.4417177914110429</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>55</v>
       </c>
       <c r="B13">
-        <v>0.543010752688172</v>
+        <v>0.5048076923076923</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>56</v>
       </c>
       <c r="B14">
-        <v>0.6180257510729614</v>
+        <v>0.5571428571428572</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>57</v>
       </c>
       <c r="B15">
-        <v>0.538961038961039</v>
+        <v>0.5072886297376094</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>58</v>
       </c>
       <c r="B16">
-        <v>0.5465686274509803</v>
+        <v>0.5110132158590308</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>59</v>
       </c>
       <c r="B17">
-        <v>0.4662162162162162</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>60</v>
       </c>
       <c r="B18">
-        <v>0.5904761904761905</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1858,7 @@
         <v>61</v>
       </c>
       <c r="B2">
-        <v>0.5608856088560885</v>
+        <v>0.5064102564102564</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>62</v>
       </c>
       <c r="B3">
-        <v>0.4437229437229437</v>
+        <v>0.3646551724137931</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>63</v>
       </c>
       <c r="B4">
-        <v>0.5938697318007663</v>
+        <v>0.5409836065573771</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>64</v>
       </c>
       <c r="B5">
-        <v>0.5916666666666667</v>
+        <v>0.5376344086021505</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>65</v>
       </c>
       <c r="B6">
-        <v>0.4571428571428571</v>
+        <v>0.4030837004405287</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>66</v>
       </c>
       <c r="B7">
-        <v>0.6538461538461539</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>67</v>
       </c>
       <c r="B8">
-        <v>0.6763005780346821</v>
+        <v>0.6461538461538462</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>68</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>69</v>
       </c>
       <c r="B10">
-        <v>0.4347826086956522</v>
+        <v>0.379949452401011</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>70</v>
       </c>
       <c r="B11">
-        <v>0.3594202898550725</v>
+        <v>0.3367088607594937</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>71</v>
       </c>
       <c r="B12">
-        <v>0.4437229437229437</v>
+        <v>0.3646551724137931</v>
       </c>
     </row>
   </sheetData>
@@ -1980,7 +1980,7 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>0.4581939799331103</v>
+        <v>0.3932432432432432</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.5846153846153846</v>
+        <v>0.5313531353135313</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>74</v>
       </c>
       <c r="B4">
-        <v>0.5911111111111111</v>
+        <v>0.5725806451612904</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>75</v>
       </c>
       <c r="B5">
-        <v>0.4555808656036446</v>
+        <v>0.4074803149606299</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2012,7 +2012,7 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>0.4732006125574272</v>
+        <v>0.4406077348066298</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2020,7 +2020,7 @@
         <v>77</v>
       </c>
       <c r="B7">
-        <v>0.6104417670682731</v>
+        <v>0.5524475524475524</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>78</v>
       </c>
       <c r="B8">
-        <v>0.5481283422459893</v>
+        <v>0.4976851851851852</v>
       </c>
     </row>
   </sheetData>
@@ -2066,7 +2066,7 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>0.6861702127659575</v>
+        <v>0.631336405529954</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>80</v>
       </c>
       <c r="B3">
-        <v>0.6098901098901099</v>
+        <v>0.5609756097560976</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>81</v>
       </c>
       <c r="B4">
-        <v>0.6022727272727273</v>
+        <v>0.5786802030456852</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>82</v>
       </c>
       <c r="B5">
-        <v>0.66</v>
+        <v>0.6136363636363636</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>83</v>
       </c>
       <c r="B6">
-        <v>0.52046783625731</v>
+        <v>0.4367816091954023</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>84</v>
       </c>
       <c r="B7">
-        <v>0.5546875</v>
+        <v>0.4983277591973244</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>85</v>
       </c>
       <c r="B8">
-        <v>0.5825688073394495</v>
+        <v>0.545816733067729</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>86</v>
       </c>
       <c r="B9">
-        <v>0.4425287356321839</v>
+        <v>0.3980099502487562</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>87</v>
       </c>
       <c r="B10">
-        <v>0.523517382413088</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>88</v>
       </c>
       <c r="B11">
-        <v>0.4614121510673235</v>
+        <v>0.4215116279069768</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>89</v>
       </c>
       <c r="B12">
-        <v>0.5706806282722513</v>
+        <v>0.5251141552511416</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>90</v>
       </c>
       <c r="B13">
-        <v>0.7075471698113207</v>
+        <v>0.6692913385826772</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>91</v>
       </c>
       <c r="B14">
-        <v>0.6190476190476191</v>
+        <v>0.5804597701149425</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>92</v>
       </c>
       <c r="B15">
-        <v>0.4595238095238095</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +2215,7 @@
         <v>93</v>
       </c>
       <c r="B2">
-        <v>0.4614264919941776</v>
+        <v>0.4211886304909561</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>94</v>
       </c>
       <c r="B3">
-        <v>0.6666666666666666</v>
+        <v>0.6063348416289592</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>95</v>
       </c>
       <c r="B4">
-        <v>0.4874623871614844</v>
+        <v>0.4385499557913351</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>96</v>
       </c>
       <c r="B5">
-        <v>0.6830985915492958</v>
+        <v>0.6687898089171974</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>97</v>
       </c>
       <c r="B6">
-        <v>0.5396341463414634</v>
+        <v>0.4893048128342246</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>98</v>
       </c>
       <c r="B7">
-        <v>0.4779411764705883</v>
+        <v>0.4026442307692308</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>99</v>
       </c>
       <c r="B8">
-        <v>0.5521235521235521</v>
+        <v>0.5268817204301075</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>0.4096045197740113</v>
+        <v>0.3858064516129032</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>101</v>
       </c>
       <c r="B10">
-        <v>0.3922789539227896</v>
+        <v>0.3645484949832776</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>102</v>
       </c>
       <c r="B11">
-        <v>0.2471145309263096</v>
+        <v>0.2226613965744401</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>103</v>
       </c>
       <c r="B12">
-        <v>0.579185520361991</v>
+        <v>0.551440329218107</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>104</v>
       </c>
       <c r="B13">
-        <v>0.541958041958042</v>
+        <v>0.5015384615384615</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>105</v>
       </c>
       <c r="B14">
-        <v>0.4335664335664335</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>106</v>
       </c>
       <c r="B15">
-        <v>0.631336405529954</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>107</v>
       </c>
       <c r="B16">
-        <v>0.4924874791318865</v>
+        <v>0.4517087667161961</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>108</v>
       </c>
       <c r="B17">
-        <v>0.3350488934637159</v>
+        <v>0.3105065666041276</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>109</v>
       </c>
       <c r="B18">
-        <v>0.6312849162011173</v>
+        <v>0.5960591133004927</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>110</v>
       </c>
       <c r="B19">
-        <v>0.5645645645645646</v>
+        <v>0.5335120643431636</v>
       </c>
     </row>
   </sheetData>
